--- a/review/available_metal_lci_review.xlsx
+++ b/review/available_metal_lci_review.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="664" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C3F25D3-1E9D-4B2B-8B9E-7E4CBC52AAC4}"/>
+  <xr:revisionPtr revIDLastSave="679" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C81061D-1C54-49C7-BEDF-0968AA5B3264}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="lci_data" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lci_data!$A$1:$J$96</definedName>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="272">
   <si>
     <t>SOURCE</t>
   </si>
@@ -987,12 +986,27 @@
   <si>
     <t>Mass allocation</t>
   </si>
+  <si>
+    <t>Titanium</t>
+  </si>
+  <si>
+    <t>REEs</t>
+  </si>
+  <si>
+    <t>No BW import</t>
+  </si>
+  <si>
+    <t>GREET model (2022)</t>
+  </si>
+  <si>
+    <t>Synthetic Graphite</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,12 +1041,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1374,7 +1382,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA3F991-BDF1-4E00-9F2F-B1729FFC524F}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2398,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
         <v>249</v>
@@ -2883,7 +2891,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="C53" t="s">
         <v>250</v>
@@ -4151,6 +4159,9 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>258</v>
+      </c>
       <c r="B98" t="s">
         <v>37</v>
       </c>
@@ -4168,6 +4179,9 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>258</v>
+      </c>
       <c r="B99" t="s">
         <v>37</v>
       </c>
@@ -4185,6 +4199,9 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>258</v>
+      </c>
       <c r="B100" t="s">
         <v>37</v>
       </c>
@@ -4202,6 +4219,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>258</v>
+      </c>
       <c r="B101" t="s">
         <v>37</v>
       </c>
@@ -4219,6 +4239,9 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>258</v>
+      </c>
       <c r="B102" t="s">
         <v>37</v>
       </c>
@@ -4233,6 +4256,50 @@
       </c>
       <c r="I102" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>269</v>
+      </c>
+      <c r="B105" t="s">
+        <v>267</v>
+      </c>
+      <c r="C105" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>269</v>
+      </c>
+      <c r="B106" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4244,16 +4311,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6788E6AD-EE2F-41AB-AEC2-3B17B15EBCF6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/review/available_metal_lci_review.xlsx
+++ b/review/available_metal_lci_review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="679" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C81061D-1C54-49C7-BEDF-0968AA5B3264}"/>
+  <xr:revisionPtr revIDLastSave="726" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC5B40A-72A7-4C8B-BCC3-A5B30D21D90D}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <author>tc={D92DC4AD-1187-4797-BCCF-0962C1A599DA}</author>
   </authors>
   <commentList>
-    <comment ref="D97" authorId="0" shapeId="0" xr:uid="{D92DC4AD-1187-4797-BCCF-0962C1A599DA}">
+    <comment ref="D52" authorId="0" shapeId="0" xr:uid="{D92DC4AD-1187-4797-BCCF-0962C1A599DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="278">
   <si>
     <t>SOURCE</t>
   </si>
@@ -1000,6 +1000,24 @@
   </si>
   <si>
     <t>Synthetic Graphite</t>
+  </si>
+  <si>
+    <t>Gao et al (2018)</t>
+  </si>
+  <si>
+    <t>Titanium sponge</t>
+  </si>
+  <si>
+    <t>Norgate &amp; Haque (2012)</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>Farjana et al (2019)</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1386,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D97" dT="2025-01-07T19:28:55.20" personId="{044A4790-DDB8-48FA-B4C6-12FEE3D9909C}" id="{D92DC4AD-1187-4797-BCCF-0962C1A599DA}">
+  <threadedComment ref="D52" dT="2025-01-07T19:28:55.20" personId="{044A4790-DDB8-48FA-B4C6-12FEE3D9909C}" id="{D92DC4AD-1187-4797-BCCF-0962C1A599DA}">
     <text>The name for Roy et al (2024) are approximative are they are not yet published as of Jan 2025</text>
   </threadedComment>
 </ThreadedComments>
@@ -1382,7 +1400,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,16 +1467,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA3F991-BDF1-4E00-9F2F-B1729FFC524F}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.77734375" bestFit="1" customWidth="1"/>
@@ -1502,95 +1520,98 @@
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H2" t="s">
         <v>231</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>45</v>
+      <c r="H3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" t="s">
+        <v>119</v>
       </c>
       <c r="J3" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H4" t="s">
         <v>231</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1598,31 +1619,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H5" t="s">
-        <v>242</v>
-      </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1630,22 +1645,25 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
         <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1653,31 +1671,28 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I7" t="s">
         <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1685,31 +1700,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H8" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
         <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1717,150 +1726,126 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="H9" t="s">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
         <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" t="s">
-        <v>231</v>
-      </c>
       <c r="I10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="I12" t="s">
         <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
+        <v>232</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
+      </c>
+      <c r="H13" t="s">
+        <v>231</v>
       </c>
       <c r="I13" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>176</v>
+      <c r="J13" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1868,60 +1853,63 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
+      </c>
+      <c r="H14" t="s">
+        <v>235</v>
       </c>
       <c r="I14" t="s">
         <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1929,28 +1917,25 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
         <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1958,54 +1943,51 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
         <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2013,54 +1995,51 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
         <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2068,51 +2047,60 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" t="s">
+        <v>242</v>
       </c>
       <c r="I21" t="s">
         <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>28</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="I22" t="s">
         <v>45</v>
       </c>
-      <c r="J22" t="s">
-        <v>181</v>
+      <c r="J22" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2126,19 +2114,22 @@
         <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
       </c>
+      <c r="G23" s="5" t="s">
+        <v>239</v>
+      </c>
       <c r="I23" t="s">
         <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2149,13 +2140,13 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -2164,24 +2155,24 @@
         <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2190,24 +2181,24 @@
         <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2216,7 +2207,7 @@
         <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2227,13 +2218,13 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -2242,7 +2233,7 @@
         <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2250,25 +2241,25 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I28" t="s">
         <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2276,146 +2267,146 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I29" t="s">
         <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I30" t="s">
         <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I31" t="s">
         <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="I32" t="s">
         <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
       </c>
       <c r="I33" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
         <v>28</v>
@@ -2424,261 +2415,189 @@
         <v>45</v>
       </c>
       <c r="J34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
-      </c>
-      <c r="D35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>248</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" t="s">
-        <v>45</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
-      </c>
-      <c r="D39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" t="s">
-        <v>45</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I40" t="s">
         <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I41" t="s">
         <v>45</v>
       </c>
       <c r="J41" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I42" t="s">
         <v>45</v>
       </c>
       <c r="J42" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="I43" t="s">
         <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I44" t="s">
         <v>45</v>
       </c>
       <c r="J44" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2686,22 +2605,25 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
         <v>45</v>
+      </c>
+      <c r="J45" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2709,314 +2631,281 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
         <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
         <v>45</v>
       </c>
       <c r="J48" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
         <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" t="s">
-        <v>246</v>
-      </c>
-      <c r="D51" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H51" t="s">
+        <v>231</v>
       </c>
       <c r="I51" t="s">
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" t="s">
-        <v>28</v>
+        <v>260</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="I52" t="s">
         <v>45</v>
-      </c>
-      <c r="J52" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="B53" t="s">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" t="s">
-        <v>165</v>
-      </c>
-      <c r="F53" t="s">
-        <v>28</v>
+        <v>261</v>
+      </c>
+      <c r="H53" t="s">
+        <v>239</v>
       </c>
       <c r="I53" t="s">
         <v>45</v>
-      </c>
-      <c r="J53" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D54" t="s">
-        <v>206</v>
-      </c>
-      <c r="E54" t="s">
-        <v>207</v>
-      </c>
-      <c r="F54" t="s">
-        <v>28</v>
+        <v>262</v>
+      </c>
+      <c r="H54" t="s">
+        <v>266</v>
       </c>
       <c r="I54" t="s">
         <v>45</v>
-      </c>
-      <c r="J54" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" t="s">
-        <v>167</v>
-      </c>
-      <c r="F55" t="s">
-        <v>28</v>
+        <v>263</v>
+      </c>
+      <c r="H55" t="s">
+        <v>266</v>
       </c>
       <c r="I55" t="s">
         <v>45</v>
-      </c>
-      <c r="J55" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" t="s">
-        <v>154</v>
-      </c>
-      <c r="F56" t="s">
-        <v>28</v>
+        <v>264</v>
+      </c>
+      <c r="H56" t="s">
+        <v>239</v>
       </c>
       <c r="I56" t="s">
         <v>45</v>
-      </c>
-      <c r="J56" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>256</v>
+        <v>265</v>
+      </c>
+      <c r="H57" t="s">
+        <v>239</v>
       </c>
       <c r="I57" t="s">
         <v>45</v>
-      </c>
-      <c r="J57" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3030,13 +2919,13 @@
         <v>243</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
         <v>256</v>
@@ -3045,7 +2934,7 @@
         <v>45</v>
       </c>
       <c r="J58" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3059,13 +2948,13 @@
         <v>243</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G59" t="s">
         <v>256</v>
@@ -3088,13 +2977,13 @@
         <v>243</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G60" t="s">
         <v>256</v>
@@ -3103,7 +2992,7 @@
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3117,13 +3006,13 @@
         <v>243</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G61" t="s">
         <v>256</v>
@@ -3146,10 +3035,10 @@
         <v>243</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F62" t="s">
         <v>64</v>
@@ -3175,10 +3064,10 @@
         <v>243</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
         <v>64</v>
@@ -3195,7 +3084,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
@@ -3204,7 +3093,7 @@
         <v>243</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
         <v>69</v>
@@ -3219,7 +3108,7 @@
         <v>45</v>
       </c>
       <c r="J64" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3233,13 +3122,13 @@
         <v>243</v>
       </c>
       <c r="D65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G65" t="s">
         <v>256</v>
@@ -3262,13 +3151,13 @@
         <v>243</v>
       </c>
       <c r="D66" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
         <v>256</v>
@@ -3291,10 +3180,10 @@
         <v>243</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F67" t="s">
         <v>64</v>
@@ -3311,7 +3200,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
@@ -3320,10 +3209,10 @@
         <v>243</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F68" t="s">
         <v>27</v>
@@ -3335,7 +3224,7 @@
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3349,13 +3238,13 @@
         <v>243</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G69" t="s">
         <v>256</v>
@@ -3378,13 +3267,13 @@
         <v>243</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s">
         <v>256</v>
@@ -3407,10 +3296,10 @@
         <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F71" t="s">
         <v>64</v>
@@ -3427,7 +3316,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
@@ -3436,10 +3325,10 @@
         <v>243</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s">
         <v>27</v>
@@ -3451,7 +3340,7 @@
         <v>45</v>
       </c>
       <c r="J72" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3465,13 +3354,13 @@
         <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E73" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G73" t="s">
         <v>256</v>
@@ -3494,13 +3383,13 @@
         <v>243</v>
       </c>
       <c r="D74" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G74" t="s">
         <v>256</v>
@@ -3523,13 +3412,13 @@
         <v>243</v>
       </c>
       <c r="D75" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E75" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G75" t="s">
         <v>256</v>
@@ -3538,12 +3427,12 @@
         <v>45</v>
       </c>
       <c r="J75" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
@@ -3552,13 +3441,13 @@
         <v>243</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G76" t="s">
         <v>256</v>
@@ -3567,7 +3456,7 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3581,13 +3470,13 @@
         <v>243</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E77" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G77" t="s">
         <v>256</v>
@@ -3610,13 +3499,13 @@
         <v>243</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E78" t="s">
         <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G78" t="s">
         <v>256</v>
@@ -3639,13 +3528,13 @@
         <v>243</v>
       </c>
       <c r="D79" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E79" t="s">
         <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G79" t="s">
         <v>256</v>
@@ -3654,7 +3543,7 @@
         <v>45</v>
       </c>
       <c r="J79" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3668,13 +3557,13 @@
         <v>243</v>
       </c>
       <c r="D80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E80" t="s">
         <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G80" t="s">
         <v>256</v>
@@ -3694,22 +3583,25 @@
         <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="G81" t="s">
+        <v>256</v>
       </c>
       <c r="I81" t="s">
         <v>45</v>
       </c>
       <c r="J81" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3723,7 +3615,7 @@
         <v>243</v>
       </c>
       <c r="D82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E82" t="s">
         <v>93</v>
@@ -3752,13 +3644,13 @@
         <v>243</v>
       </c>
       <c r="D83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
         <v>93</v>
       </c>
       <c r="F83" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G83" t="s">
         <v>256</v>
@@ -3767,7 +3659,7 @@
         <v>45</v>
       </c>
       <c r="J83" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3781,13 +3673,13 @@
         <v>243</v>
       </c>
       <c r="D84" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
         <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G84" t="s">
         <v>256</v>
@@ -3810,13 +3702,13 @@
         <v>243</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G85" t="s">
         <v>256</v>
@@ -3839,13 +3731,13 @@
         <v>243</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G86" t="s">
         <v>256</v>
@@ -3854,7 +3746,7 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3865,22 +3757,25 @@
         <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="G87" t="s">
+        <v>256</v>
       </c>
       <c r="I87" t="s">
         <v>45</v>
       </c>
       <c r="J87" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3894,13 +3789,13 @@
         <v>243</v>
       </c>
       <c r="D88" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E88" t="s">
         <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G88" t="s">
         <v>256</v>
@@ -3923,13 +3818,13 @@
         <v>243</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E89" t="s">
         <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G89" t="s">
         <v>256</v>
@@ -3938,7 +3833,7 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3952,7 +3847,7 @@
         <v>243</v>
       </c>
       <c r="D90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E90" t="s">
         <v>31</v>
@@ -3972,7 +3867,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
@@ -3981,13 +3876,13 @@
         <v>243</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E91" t="s">
         <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G91" t="s">
         <v>256</v>
@@ -3996,7 +3891,7 @@
         <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4010,13 +3905,13 @@
         <v>243</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E92" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G92" t="s">
         <v>256</v>
@@ -4025,12 +3920,12 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -4039,13 +3934,13 @@
         <v>243</v>
       </c>
       <c r="D93" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E93" t="s">
         <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G93" t="s">
         <v>256</v>
@@ -4054,7 +3949,7 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4068,20 +3963,22 @@
         <v>243</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E94" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94"/>
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>256</v>
+      </c>
       <c r="I94" t="s">
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4095,20 +3992,22 @@
         <v>243</v>
       </c>
       <c r="D95" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E95" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95"/>
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
+        <v>256</v>
+      </c>
       <c r="I95" t="s">
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4128,7 +4027,7 @@
         <v>106</v>
       </c>
       <c r="F96" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G96"/>
       <c r="I96" t="s">
@@ -4138,174 +4037,317 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>260</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>266</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E97" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97"/>
       <c r="I97" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D98" t="s">
-        <v>261</v>
-      </c>
-      <c r="H98" t="s">
+        <v>107</v>
+      </c>
+      <c r="E98" t="s">
+        <v>106</v>
+      </c>
+      <c r="F98" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98"/>
+      <c r="I98" t="s">
+        <v>45</v>
+      </c>
+      <c r="J98" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" t="s">
+        <v>250</v>
+      </c>
+      <c r="D99" t="s">
+        <v>164</v>
+      </c>
+      <c r="E99" t="s">
+        <v>163</v>
+      </c>
+      <c r="F99" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" t="s">
+        <v>45</v>
+      </c>
+      <c r="J99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" t="s">
+        <v>250</v>
+      </c>
+      <c r="D100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" t="s">
+        <v>156</v>
+      </c>
+      <c r="F100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s">
+        <v>45</v>
+      </c>
+      <c r="J100" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" t="s">
+        <v>250</v>
+      </c>
+      <c r="D101" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" t="s">
+        <v>165</v>
+      </c>
+      <c r="F101" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s">
+        <v>250</v>
+      </c>
+      <c r="D102" t="s">
+        <v>206</v>
+      </c>
+      <c r="E102" t="s">
+        <v>207</v>
+      </c>
+      <c r="F102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s">
+        <v>45</v>
+      </c>
+      <c r="J102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" t="s">
+        <v>250</v>
+      </c>
+      <c r="D103" t="s">
+        <v>168</v>
+      </c>
+      <c r="E103" t="s">
+        <v>167</v>
+      </c>
+      <c r="F103" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" t="s">
+        <v>45</v>
+      </c>
+      <c r="J103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>58</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" t="s">
+        <v>250</v>
+      </c>
+      <c r="D104" t="s">
+        <v>155</v>
+      </c>
+      <c r="E104" t="s">
+        <v>154</v>
+      </c>
+      <c r="F104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" t="s">
+        <v>45</v>
+      </c>
+      <c r="J104" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J105" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" t="s">
+        <v>111</v>
+      </c>
+      <c r="E106" t="s">
+        <v>110</v>
+      </c>
+      <c r="F106" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" t="s">
+        <v>45</v>
+      </c>
+      <c r="J106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" t="s">
+        <v>53</v>
+      </c>
+      <c r="F107" t="s">
+        <v>49</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H107" t="s">
         <v>239</v>
       </c>
-      <c r="I98" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>258</v>
-      </c>
-      <c r="B99" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" t="s">
-        <v>259</v>
-      </c>
-      <c r="D99" t="s">
-        <v>262</v>
-      </c>
-      <c r="H99" t="s">
-        <v>266</v>
-      </c>
-      <c r="I99" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>258</v>
-      </c>
-      <c r="B100" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100" t="s">
-        <v>259</v>
-      </c>
-      <c r="D100" t="s">
-        <v>263</v>
-      </c>
-      <c r="H100" t="s">
-        <v>266</v>
-      </c>
-      <c r="I100" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>258</v>
-      </c>
-      <c r="B101" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" t="s">
-        <v>259</v>
-      </c>
-      <c r="D101" t="s">
-        <v>264</v>
-      </c>
-      <c r="H101" t="s">
-        <v>239</v>
-      </c>
-      <c r="I101" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>258</v>
-      </c>
-      <c r="B102" t="s">
-        <v>37</v>
-      </c>
-      <c r="C102" t="s">
-        <v>259</v>
-      </c>
-      <c r="D102" t="s">
-        <v>265</v>
-      </c>
-      <c r="H102" t="s">
-        <v>239</v>
-      </c>
-      <c r="I102" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>269</v>
-      </c>
-      <c r="B103" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>269</v>
-      </c>
-      <c r="B104" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>269</v>
-      </c>
-      <c r="B105" t="s">
-        <v>267</v>
-      </c>
-      <c r="C105" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>269</v>
-      </c>
-      <c r="B106" t="s">
-        <v>268</v>
-      </c>
-      <c r="C106" t="s">
-        <v>270</v>
+      <c r="I107" t="s">
+        <v>45</v>
+      </c>
+      <c r="J107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>275</v>
+      </c>
+      <c r="C109" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>276</v>
+      </c>
+      <c r="C110" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J96" xr:uid="{4AA3F991-BDF1-4E00-9F2F-B1729FFC524F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:J96">
-      <sortCondition ref="D1:D96"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J107">
+      <sortCondition ref="C1:C96"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/review/available_metal_lci_review.xlsx
+++ b/review/available_metal_lci_review.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="726" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC5B40A-72A7-4C8B-BCC3-A5B30D21D90D}"/>
+  <xr:revisionPtr revIDLastSave="760" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B7EA17-33B1-4265-BCF5-D2EBA34CD2C7}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="lci_data" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lci_data!$A$1:$J$96</definedName>
@@ -45,7 +47,7 @@
     <author>tc={D92DC4AD-1187-4797-BCCF-0962C1A599DA}</author>
   </authors>
   <commentList>
-    <comment ref="D52" authorId="0" shapeId="0" xr:uid="{D92DC4AD-1187-4797-BCCF-0962C1A599DA}">
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{D92DC4AD-1187-4797-BCCF-0962C1A599DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="496">
   <si>
     <t>SOURCE</t>
   </si>
@@ -960,9 +962,6 @@
     <t>lci_data</t>
   </si>
   <si>
-    <t>Not publicly available yet</t>
-  </si>
-  <si>
     <t>Roy et al (2024)</t>
   </si>
   <si>
@@ -1018,13 +1017,883 @@
   </si>
   <si>
     <t>Farjana et al (2019)</t>
+  </si>
+  <si>
+    <t>Khakmardan et al (2025)</t>
+  </si>
+  <si>
+    <t>Chordia et al (2022)</t>
+  </si>
+  <si>
+    <t>In EI 3.8?</t>
+  </si>
+  <si>
+    <t>Istrate et al (2024), In EI 3.1?</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>LCI Source (Year)</t>
+  </si>
+  <si>
+    <t>Data Summary</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Geo Scope</t>
+  </si>
+  <si>
+    <t>Stages Covered</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v3 database (latest)</t>
+    </r>
+  </si>
+  <si>
+    <t>Generic LCI for primary aluminum: includes bauxite mining, alumina refining (Bayer process), electrolysis (Hall–Héroult) and ingot casting. Based on year ~2000 tech mix (world bauxite, EU smelting) – energy use, emissions, and waste flows included.</t>
+  </si>
+  <si>
+    <t>Paywalled (database)</t>
+  </si>
+  <si>
+    <t>Global (with EU focus)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mining → ingot)</t>
+  </si>
+  <si>
+    <t>International Aluminium Institute (2015, 2019)</t>
+  </si>
+  <si>
+    <t>Global industry LCI data for primary aluminum production. Consolidates data from 200+ sites covering bauxite mining, alumina refining, anode production, smelting, and casting. Provides regional breakdown (e.g. Europe, Asia) and inputs/outputs (energy, materials, emissions).</t>
+  </si>
+  <si>
+    <t>Open report (IAI)</t>
+  </si>
+  <si>
+    <t>Global (regionalized data)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mine → primary ingot)</t>
+  </si>
+  <si>
+    <t>Nuss &amp; Eckelman (2014)</t>
+  </si>
+  <si>
+    <t>Synthesized LCI for aluminum among 63 metals. Uses extensive literature to estimate cradle-to-gate burdens (energy ~MJ/kg, GHG, etc.) for primary Al. Confirms mining and refining dominate impacts for Al (relatively lower impacts per kg vs precious metals).</t>
+  </si>
+  <si>
+    <t>Open (PLOS One)</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (bauxite → Al metal)</t>
+  </si>
+  <si>
+    <t>Cadmium</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v3 (via Zn/Pb production)</t>
+    </r>
+  </si>
+  <si>
+    <t>LCI for cadmium is included as a by-product of zinc/lead refining. Captures mining of Zn/Pb ores, concentrate treatment, and cadmium recovery steps (electrolysis or distillation) – energy and emissions data integrated in Zn/Pb processes (year ~2000 data).</t>
+  </si>
+  <si>
+    <t>Paywalled</t>
+  </si>
+  <si>
+    <t>Europe/Global mix</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (embedded in Zn/Pb mining &amp; refining)</t>
+  </si>
+  <si>
+    <t>First comprehensive cradle-to-gate LCI estimates for cadmium (among others). Provides environmental burdens per kg Cd in metallic form (derived from co-production analysis). Highlights that Cd (co-product of Zn) has much lower total impact (due to low output) compared to major metals.</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mining → refined Cd)</t>
+  </si>
+  <si>
+    <t>Cadmium–Telluride PV LCI (IEA PVPS 2020)</t>
+  </si>
+  <si>
+    <t>Industry LCI for CdTe photovoltaic modules includes upstream cadmium and tellurium production. Details raw material extraction (zinc mining for cadmium, copper anode slimes for tellurium) and refining into CdTe compound. Focused on PV supply chain – useful for mining/refining stage data of Cd.</t>
+  </si>
+  <si>
+    <t>Open report (IEA)</t>
+  </si>
+  <si>
+    <t>Global (major producers)</t>
+  </si>
+  <si>
+    <t>Mining &amp; refining (Cd and Te to CdTe)</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v3 (hard coal, lignite)</t>
+    </r>
+  </si>
+  <si>
+    <t>LCI datasets for coal mining and processing. Includes underground and open-pit mining operations, coal washing, and mine methane emissions. Regional datasets (e.g. DE, CN, AU) provide country-average energy use and emissions​</t>
+  </si>
+  <si>
+    <t>support.ecoinvent.org</t>
+  </si>
+  <si>
+    <t>​</t>
+  </si>
+  <si>
+    <t>. Used as background fuel supply in LCAs.</t>
+  </si>
+  <si>
+    <t>Global (country-specific available)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate for coal (extraction → mine gate)</t>
+  </si>
+  <si>
+    <t>Argonne GREET Model (2020 updates)</t>
+  </si>
+  <si>
+    <t>GREET contains life-cycle data for fuel feedstocks including coal. Energy and material flows for U.S. coal production (mining, cleaning, transportation) are included for power generation LCAs​</t>
+  </si>
+  <si>
+    <t>outside.vermont.gov</t>
+  </si>
+  <si>
+    <t>. Emission factors for coal supply chain (e.g. kg CO₂/MJ mined coal) can be obtained via GREET or derivative reports.</t>
+  </si>
+  <si>
+    <t>Open (registration)</t>
+  </si>
+  <si>
+    <t>U.S. (national average)</t>
+  </si>
+  <si>
+    <t>Mining &amp; processing (cradle-to-gate for raw coal)</t>
+  </si>
+  <si>
+    <t>World Coal LCI (literature)</t>
+  </si>
+  <si>
+    <t>Studies (2019–2021) have compiled coal LCIs for GHG footprint analysis. E.g. one report provides Vermont’s electricity LCA using GREET coal data​</t>
+  </si>
+  <si>
+    <t>. Generally, coal LCIs track diesel use, electricity for mine operations, methane emissions, and land disturbance per ton coal.</t>
+  </si>
+  <si>
+    <t>Mixed (grey literature)</t>
+  </si>
+  <si>
+    <t>Various (case-specific)</t>
+  </si>
+  <si>
+    <t>Mining (extraction, beneficiation)</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v3 (copper concentrate &amp; cathode)</t>
+    </r>
+  </si>
+  <si>
+    <t>Comprehensive LCI for copper: includes ore mining (open-pit &amp; UG), concentration, smelting, electrorefining to 99.99% cathode. Global-average ore grades and regional smelting mixes (often global/Chile data). Covers energy (diesel, electricity), process emissions (SO₂, metals) and mine tailings.</t>
+  </si>
+  <si>
+    <t>Global (with regional elements)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mine → refined cathode)</t>
+  </si>
+  <si>
+    <t>Int’l Copper Assoc. “Copper Environmental Profile” (2023)​</t>
+  </si>
+  <si>
+    <t>internationalcopper.org</t>
+  </si>
+  <si>
+    <t>Global LCI dataset for copper cathode (cradle-to-gate). Aggregates data from global mines and smelters, providing modern (2021) industry-average resource use, energy, and emissions per 1 kg Cu. Also includes copper concentrate LCI. Published to support transparency; most comprehensive public copper LCI to date.</t>
+  </si>
+  <si>
+    <t>Open (ICA report)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mining, milling, smelting, refining)</t>
+  </si>
+  <si>
+    <t>Collated cradle-to-gate LCI for copper in global context. Confirms that refining (smelting/ electrorefining) stages dominate impacts while mining is lower in contribution. Provides comparative metrics (energy, GHG) for Cu among 63 metals.</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mine → cathode)</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Diamond Producers Association (Trucost 2019)</t>
+  </si>
+  <si>
+    <t>Industry-commissioned LCI study for mined diamonds (cradle-to-gate of a polished carat). Collected data from 7 largest diamond miners. Reported averages: ~160 kg CO₂ per polished carat, energy and water per carat, etc. Excludes downstream jewelry retail. Underlying data proprietary; summary indicates mining and processing (per carat) impacts.</t>
+  </si>
+  <si>
+    <t>Paywalled (industry report)</t>
+  </si>
+  <si>
+    <t>Global (major mines: Botswana, Russia, Canada, etc.)</t>
+  </si>
+  <si>
+    <t>Mostly mining &amp; mineral processing (cradle-to-polished diamond)</t>
+  </si>
+  <si>
+    <t>Imperial College London Consultants (2021)​</t>
+  </si>
+  <si>
+    <t>imperial-consultants.co.uk</t>
+  </si>
+  <si>
+    <t>“Environmental Impacts of Mined Diamonds” meta-study. Reviewed multiple LCA sources and case studies for mined diamonds, per-carat impact ranges. Highlights variability by country (e.g. 40–80 kWh and ~10–60 kg CO₂ per carat mined) and notes prior studies (DPA 2019) omitted some stages. Openly published as a rebuttal including mining stage LCI data.</t>
+  </si>
+  <si>
+    <t>Open (consultant report)</t>
+  </si>
+  <si>
+    <t>Global (country cases)</t>
+  </si>
+  <si>
+    <t>Mining and partial refining (to rough diamond)</t>
+  </si>
+  <si>
+    <t>Synthetic Diamond LCA (2019–2020 studies)</t>
+  </si>
+  <si>
+    <t>Recent studies (e.g. ACS Sustainable Chem. Eng. 2020) assessed lab-grown vs. mined diamonds. Provide cradle-to-gate energy and emissions for synthetic routes (HPHT or CVD) compared to mining. These complement mined diamond LCIs by covering the refining (crystallization) stage in a factory.</t>
+  </si>
+  <si>
+    <t>Mixed (journal, paywalled)</t>
+  </si>
+  <si>
+    <t>N/A (synthetic production)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate for lab-grown diamonds</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v3 (estimated)</t>
+    </r>
+  </si>
+  <si>
+    <t>Gold LCI in ecoinvent (if available) is modeled via PGM co-production: gold as minor product in copper/nickel mines​</t>
+  </si>
+  <si>
+    <t>dora.lib4ri.ch</t>
+  </si>
+  <si>
+    <t>or stand-alone modeling. Includes typical ore grades (~1–3 g/ton), cyanide leaching or smelting, and refining to bullion. Covers high energy use (diesel, electricity) per kg Au and tailings management (potential underestimation noted for tailings emissions).</t>
+  </si>
+  <si>
+    <t>Global (with regional data)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mining → refining)</t>
+  </si>
+  <si>
+    <t>Global cradle-to-gate LCI for gold (one of highest impacts per kg). Quantifies cumulative energy and GHG per kg Au, showing gold’s impacts are among the largest of all metals examined. Refining and purification stages dominate (due to energy-intensive ore processing for tiny yields). Data compiled from prior studies and industry reports.</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mine → gold bullion)</t>
+  </si>
+  <si>
+    <t>Haque et al. (2014) – In-situ Mining Study​</t>
+  </si>
+  <si>
+    <t>saimm.co.za</t>
+  </si>
+  <si>
+    <t>Case-study LCA of novel mining method: in-situ leaching for gold in Australia. Used SimaPro to estimate GHG emissions ~38 kg CO₂/ton ore for ISL vs higher for conventional mining. Provides mining-stage LCI insight (chemicals, energy) for gold extraction. Publication emphasizes mining method effect on footprint.</t>
+  </si>
+  <si>
+    <t>Paywalled (J. Clean Prod.)</t>
+  </si>
+  <si>
+    <t>Australia (site-specific)</t>
+  </si>
+  <si>
+    <t>Mining &amp; extraction (no refining)</t>
+  </si>
+  <si>
+    <t>Niobium</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v3 (if present)</t>
+    </r>
+  </si>
+  <si>
+    <t>Niobium is not explicitly in older ecoinvent versions; later data may include ferroniobium production (since Nb mostly from pyrochlore in Brazil). Would cover mining (open-pit, Araxá Brazil), concentration, and aluminothermic reduction to FeNb alloy – high electricity and aluminum consumption.</t>
+  </si>
+  <si>
+    <t>Brazil (proxy for global)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (ore → FeNb alloy)</t>
+  </si>
+  <si>
+    <t>Alves &amp; Coutinho (2019)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LCA case study of niobium oxide production in Brazil (columbite mine to Nb₂O₅). Evaluated energy, water, and emissions for mining and hydrometallurgy. Highlights issues of tailings and beneficiation in Nb production. (Ref: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Minerals Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Mar 2019).</t>
+    </r>
+  </si>
+  <si>
+    <t>Paywalled (Elsevier)</t>
+  </si>
+  <si>
+    <t>Brazil (single operation)</t>
+  </si>
+  <si>
+    <t>Mining &amp; processing (cradle-to-refined oxide)</t>
+  </si>
+  <si>
+    <t>Faraday Institution LCA (2022)​</t>
+  </si>
+  <si>
+    <t>faraday.ac.uk</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate LCI of high-purity Niobium oxide for battery use. Assesses raw material extraction (Brazilian source) through purification. Identifies energy hot-spots and biodiversity impact of Nb mining. Open technical report; provides updated inventory data (materials, emissions per kg Nb₂O₅).</t>
+  </si>
+  <si>
+    <t>Open (Faraday report)</t>
+  </si>
+  <si>
+    <t>Global (focus on Brazil)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mining → Nb oxide)</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v3 (nickel, ferronickel)</t>
+    </r>
+  </si>
+  <si>
+    <t>LCI for nickel production (global mix). Models both sulfide ore route (mining, concentrate, smelting, matte refining) and laterite route (mining, leaching or electric furnace). Includes co-production with copper (PGM-bearing sulfides)​</t>
+  </si>
+  <si>
+    <t>. Captures energy (heavy fuel, coal, electricity) and SO₂/emissions per kg Ni.</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mining → refined Ni)</t>
+  </si>
+  <si>
+    <t>Nickel Institute LCA (Mistry et al. 2016)​</t>
+  </si>
+  <si>
+    <t>researchgate.net</t>
+  </si>
+  <si>
+    <t>Industry-wide LCI for nickel and ferronickel (data from 19 operations, ~52% of Ni world output)​</t>
+  </si>
+  <si>
+    <t>. Reference year 2011. Reports 147 MJ/kg energy for Class 1 Ni vs 485 MJ/kg for FeNi (laterite ore)​</t>
+  </si>
+  <si>
+    <t>. Global warming potentials and other impacts given. Shows sulfide ore routes (mostly Class 1 Ni) are less energy-intensive than laterite routes​</t>
+  </si>
+  <si>
+    <t>. Open access publication.</t>
+  </si>
+  <si>
+    <t>Open (Int. J. LCA)</t>
+  </si>
+  <si>
+    <t>Global (data from Americas, Russia, etc.)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mine → refinery)</t>
+  </si>
+  <si>
+    <t>Aggregated cradle-to-gate LCI for nickel (global). Confirms refining (smelting, conversion) stages are dominant contributors to Ni’s impacts. Highlights Ni often co-mined with copper and PGMs, requiring allocation of burdens. Provides comparative context of Ni’s impact among other metals.</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v3 (with PGM co-products)</t>
+    </r>
+  </si>
+  <si>
+    <t>Palladium LCI appears via PGM mining modeled in ecoinvent (S. Africa/Russia). Data derived from platinum mining/refining with co-product allocation​</t>
+  </si>
+  <si>
+    <t>. Includes underground PGM mining, smelting to matte, PGM refining (chloride leach, precipitation). High electricity use (coal-based in S. Africa) and significant sulfuric acid, chemical use captured.</t>
+  </si>
+  <si>
+    <t>S. Africa, Russia (major sources)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mining → refined Pd)</t>
+  </si>
+  <si>
+    <t>Int’l Platinum Group Metals Association LCA (2017)</t>
+  </si>
+  <si>
+    <t>First industry-wide cradle-to-gate LCA for PGMs (IPA study) including Pd and Pt. Collected data from majority of primary PGM producers (covering &gt;70% output). Found ~72% of PGM production’s environmental impact comes from electricity in mining/mineral processing. Results published via Johnson Matthey; open access.</t>
+  </si>
+  <si>
+    <t>Open (IPA/JM report)</t>
+  </si>
+  <si>
+    <t>Global (S. Africa ~50%+, Russia, N. America)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mine → refinery for Pd, Pt, etc.)</t>
+  </si>
+  <si>
+    <t>Bossi &amp; Gediga (2017)</t>
+  </si>
+  <si>
+    <t>Detailed interpretation of PGM LCA results (same IPA data). Confirms that for 1 oz PGM, mining and concentration are energy-intensive (due to low ore grades ~4 g/t). Palladium’s profile included in results. Also evaluated benefits of PGMs in catalytic converters to offset impacts.</t>
+  </si>
+  <si>
+    <t>Open (Johnson Matthey Tech Rev)</t>
+  </si>
+  <si>
+    <t>Global (major PGM regions)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (primary production, with recycling noted)</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v3 (with Ni/Cu)</t>
+    </r>
+  </si>
+  <si>
+    <t>Platinum LCI (modeled alongside Pd above). Represents primary PGM production in South Africa &amp; Russia​</t>
+  </si>
+  <si>
+    <t>. Accounts for deep underground mining (labor and energy intensive), concentrate smelting, matte converting, and chemical refining to Pt sponge. Data reflects co-production (Ni, Cu, other PGMs) allocation.</t>
+  </si>
+  <si>
+    <t>S. Africa, Russia</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mining → refined Pt)</t>
+  </si>
+  <si>
+    <t>IPA PGM LCA (2014 &amp; 2022 updates)</t>
+  </si>
+  <si>
+    <t>IPA’s first PGM LCA (2014 data) and third LCA (2022 data) cover platinum extensively. ~95% of primary Pt output and ~60% of recycled PGMs were included by 2022​</t>
+  </si>
+  <si>
+    <t>ipa-news.de</t>
+  </si>
+  <si>
+    <t>. Results (to be published 2025) reflect improvements (e.g. cleaner electricity) in S. Africa. Earlier 2014 study (published 2017) found ~27–30 GJ energy and ~2–6 t CO₂ per kg Pt, depending on mine.</t>
+  </si>
+  <si>
+    <t>2017 study open; 2022 study pending</t>
+  </si>
+  <si>
+    <t>Global (dominant S. Africa)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (primary mining &amp; refining; some recycling)</t>
+  </si>
+  <si>
+    <t>Global LCI estimates for platinum (and PGMs). Identified as having among the highest impacts per kg of all metals, due to extremely low ore grade and energy-intensive processing. Emphasizes that improvements in refining efficiency could greatly cut PGM life-cycle impacts.</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mine → refined Pt)</t>
+  </si>
+  <si>
+    <t>Potash</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Agri-footprint (regional)</t>
+    </r>
+  </si>
+  <si>
+    <t>LCI data for potassium chloride (KCl, “potash”) fertilizer exists in agri-material databases. Typically based on Canadian or Russian mining: underground or solution mining, ore (sylvinite) processing, and KCl purification. Includes energy for mining, evaporation/crystallization and emissions (brine, salt tailings). Often used in LCA tools for fertilizer production.</t>
+  </si>
+  <si>
+    <t>Paywalled (DB)</t>
+  </si>
+  <si>
+    <t>Canada, Russia (common data)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (ore → KCl product)</t>
+  </si>
+  <si>
+    <t>Chen et al. (2018)​</t>
+  </si>
+  <si>
+    <t>pmc.ncbi.nlm.nih.gov</t>
+  </si>
+  <si>
+    <r>
+      <t>LCA of potash fertilizer production in China (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resour. Conserv. Recycl.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Focused on brine-based KCl extraction. Found electricity, water use, and on-site emissions are key drivers of impacts​</t>
+    </r>
+  </si>
+  <si>
+    <t>colab.ws</t>
+  </si>
+  <si>
+    <t>. Uncertainty analysis included. Suggests environmental burdens vary greatly by extraction method (brine vs conventional).</t>
+  </si>
+  <si>
+    <t>China (brine mining)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (brine pumping → KCl)</t>
+  </si>
+  <si>
+    <t>Kouhnavard et al. (2024) (Iran case)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recent study of KCl and K₂SO₄ production in Iran (two facilities) with primary data. Assessed energy use (~50–66 kWh/carat**)^ and emissions per ton product. Identified improvement opportunities in pumping and drying stages. Open access via </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Heliyon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (in PMC). Provides a rare country-specific potash LCI.</t>
+    </r>
+  </si>
+  <si>
+    <t>Open (Heliyon)</t>
+  </si>
+  <si>
+    <t>Iran (2 production sites)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (brine → KCl, and KCl → K₂SO₄)</t>
+  </si>
+  <si>
+    <t>Tellurium</t>
+  </si>
+  <si>
+    <t>One of the first published cradle-to-gate LCIs for tellurium. As Te is primarily a co-product of copper refining, the study compiled data on Te extraction from anode slimes and refining. Results showed tellurium had the lowest total impacts of 63 metals (due to very low production volume).</t>
+  </si>
+  <si>
+    <t>Global (co-product of Cu)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (copper anode slime → Te)</t>
+  </si>
+  <si>
+    <t>CdTe PV Module LCI (Stucki et al. 2020)</t>
+  </si>
+  <si>
+    <t>International Energy Agency PVPS study providing LCI for Cadmium–Telluride photovoltaic modules. Includes dedicated data for tellurium sourcing: typically from copper refinery slimes (mostly in USA/Asia). Details energy and material inputs to produce 1 kg tellurium (and cadmium) for PV. Useful proxy for Te refining LCI in a specific application.</t>
+  </si>
+  <si>
+    <t>Open (IEA-PVPS report)</t>
+  </si>
+  <si>
+    <t>Global (major Te sources)</t>
+  </si>
+  <si>
+    <t>Mining &amp; refining (Cu by-product → Te metal, then CdTe)</t>
+  </si>
+  <si>
+    <t>U.S. DOE Critical Materials LCA (~2017)</t>
+  </si>
+  <si>
+    <t>DOE/Argonne analyses updated LCI data for critical metals including tellurium. Incorporated Te in GREET catalyst module updates (for e.g. PET catalyst with Pt/TiO₂/Te). Data originates from industry comm. and literature. Indicates the inclusion of Te in recent open LCI tools, though detailed reports are limited.</t>
+  </si>
+  <si>
+    <t>Open (data summary)</t>
+  </si>
+  <si>
+    <t>Global/US</t>
+  </si>
+  <si>
+    <t>Refining stage (by-product recovery)</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v3 (titanium sponge)</t>
+    </r>
+  </si>
+  <si>
+    <t>LCI for primary titanium (as sponge or ingot). Models ilmenite/rutile mining (mostly open pit in Australia, South Africa), TiO₂ slag production, and the Kroll process (chlorination and magnesium reduction) to produce Ti sponge. Captures chlorine, magnesium, and electricity inputs and CO₂, Cl₂ emissions. High energy and CO₂ per kg Ti due to Kroll process inefficiencies.</t>
+  </si>
+  <si>
+    <t>Global (data from AU, ZA, RU)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (ore → Ti sponge/ingot)</t>
+  </si>
+  <si>
+    <t>Chinese Ti Sponge LCA (2019)</t>
+  </si>
+  <si>
+    <t>A recent study in China assessed the environmental impacts of producing 1 ton of titanium sponge via the Kroll process​</t>
+  </si>
+  <si>
+    <t>. It quantified large electricity and coke consumption and CO₂ emissions in chlorination and reduction steps. Results are representative for current Ti production in China (a major producer). Published in a Chinese journal (in English via RG).</t>
+  </si>
+  <si>
+    <t>Mixed (RG summary)</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mining → Ti sponge)</t>
+  </si>
+  <si>
+    <t>Included titanium in the comparative LCI study. Found titanium’s life-cycle impacts per kg are relatively moderate (lower end) among metals, despite energy-intensive processes, due to higher production volume and ore grades than precious metals. Serves as a global benchmark for Ti production impacts.</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (ore → Ti metal)</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <r>
+      <t>ecoinvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v3 (uranium oxide)</t>
+    </r>
+  </si>
+  <si>
+    <t>LCI for uranium mining and milling (part of nuclear fuel cycle). Represents typical uranium ore (hard rock or open-pit in Canada/Australia) with processes: mining, grinding, leaching, yellowcake (U₃O₈) production. Includes mine energy, sulfuric acid use, radon and tailings management. Often used in nuclear LCA with enrichment &amp; fuel fabrication separately.</t>
+  </si>
+  <si>
+    <t>Global (with CAN/AUS focus)</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mining → U₃O₈ concentrate)</t>
+  </si>
+  <si>
+    <t>Global cradle-to-gate LCI for uranium (as U metal content). Accounts for mining and refinement to U₃O₈. Contributes to an estimated 3.4 Gt CO₂-eq/yr from global metals, with uranium being a notable part due to energy use in mining. Provides a public benchmark for uranium’s energy and GHG intensity relative to other metals.</t>
+  </si>
+  <si>
+    <t>Cradle-to-gate (mining → concentrate)</t>
+  </si>
+  <si>
+    <t>Haque &amp; Norgate (2014)</t>
+  </si>
+  <si>
+    <t>LCA of in-situ leaching (ISL) for uranium in Australia (J. Cleaner Prod. 84). Compared GHG footprint of ISL vs conventional mining for uranium. Found ISL can significantly lower CO₂ emissions (~38 kg CO₂-eq per kg U₃O₈ for ISL case). Covers extraction stage in detail (acid injection, processing) but not enrichment.</t>
+  </si>
+  <si>
+    <t>Mining &amp; milling (extraction st</t>
+  </si>
+  <si>
+    <t>Feng et al (2025)</t>
+  </si>
+  <si>
+    <t>Word format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,6 +1929,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1078,10 +1955,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1100,8 +1978,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1386,7 +2289,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D52" dT="2025-01-07T19:28:55.20" personId="{044A4790-DDB8-48FA-B4C6-12FEE3D9909C}" id="{D92DC4AD-1187-4797-BCCF-0962C1A599DA}">
+  <threadedComment ref="D40" dT="2025-01-07T19:28:55.20" personId="{044A4790-DDB8-48FA-B4C6-12FEE3D9909C}" id="{D92DC4AD-1187-4797-BCCF-0962C1A599DA}">
     <text>The name for Roy et al (2024) are approximative are they are not yet published as of Jan 2025</text>
   </threadedComment>
 </ThreadedComments>
@@ -1467,15 +2370,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA3F991-BDF1-4E00-9F2F-B1729FFC524F}">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A40" sqref="A40:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75.33203125" bestFit="1" customWidth="1"/>
@@ -1520,98 +2423,95 @@
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
+        <v>232</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H2" t="s">
         <v>231</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
         <v>231</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1625,19 +2525,25 @@
         <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" t="s">
+        <v>231</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1645,25 +2551,31 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" t="s">
+        <v>231</v>
+      </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1671,28 +2583,31 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
+      </c>
+      <c r="H7" t="s">
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1703,22 +2618,22 @@
         <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="J8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1726,19 +2641,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>45</v>
@@ -1749,65 +2664,74 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="I10" t="s">
         <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
         <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
         <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -1815,40 +2739,43 @@
       <c r="I12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>234</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I13" t="s">
         <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1859,16 +2786,16 @@
         <v>234</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H14" t="s">
         <v>235</v>
@@ -1877,7 +2804,7 @@
         <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1885,161 +2812,167 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H15" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="I15" t="s">
         <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="I16" t="s">
         <v>45</v>
       </c>
-      <c r="J16" t="s">
-        <v>198</v>
+      <c r="J16" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
         <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I19" t="s">
         <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2050,28 +2983,22 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H21" t="s">
-        <v>242</v>
-      </c>
       <c r="I21" t="s">
         <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2079,28 +3006,25 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="I22" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>176</v>
+      <c r="J22" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2108,28 +3032,25 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
         <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2137,77 +3058,77 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
         <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
         <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
         <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2215,25 +3136,28 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>256</v>
       </c>
       <c r="I27" t="s">
         <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2241,25 +3165,28 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>256</v>
       </c>
       <c r="I28" t="s">
         <v>45</v>
       </c>
       <c r="J28" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2267,42 +3194,42 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>256</v>
       </c>
       <c r="I29" t="s">
         <v>45</v>
       </c>
       <c r="J29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" t="s">
-        <v>246</v>
-      </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -2311,50 +3238,53 @@
         <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" t="s">
+        <v>239</v>
       </c>
       <c r="I31" t="s">
         <v>45</v>
       </c>
       <c r="J31" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
         <v>28</v>
@@ -2363,267 +3293,249 @@
         <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I33" t="s">
         <v>45</v>
       </c>
       <c r="J33" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="F34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
         <v>28</v>
       </c>
-      <c r="I34" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>273</v>
-      </c>
-      <c r="C35" t="s">
-        <v>272</v>
+      <c r="I35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" t="s">
         <v>269</v>
-      </c>
-      <c r="B38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C38" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" t="s">
         <v>269</v>
-      </c>
-      <c r="B39" t="s">
-        <v>268</v>
-      </c>
-      <c r="C39" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>495</v>
       </c>
       <c r="B40" t="s">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" t="s">
-        <v>28</v>
+        <v>259</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="I40" t="s">
         <v>45</v>
-      </c>
-      <c r="J40" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>495</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" t="s">
-        <v>28</v>
+        <v>260</v>
+      </c>
+      <c r="H41" t="s">
+        <v>239</v>
       </c>
       <c r="I41" t="s">
         <v>45</v>
-      </c>
-      <c r="J41" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>495</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" t="s">
-        <v>27</v>
+        <v>261</v>
+      </c>
+      <c r="H42" t="s">
+        <v>265</v>
       </c>
       <c r="I42" t="s">
         <v>45</v>
-      </c>
-      <c r="J42" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>495</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" t="s">
-        <v>149</v>
+        <v>262</v>
+      </c>
+      <c r="H43" t="s">
+        <v>265</v>
       </c>
       <c r="I43" t="s">
         <v>45</v>
-      </c>
-      <c r="J43" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>495</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" t="s">
-        <v>28</v>
+        <v>263</v>
+      </c>
+      <c r="H44" t="s">
+        <v>239</v>
       </c>
       <c r="I44" t="s">
         <v>45</v>
-      </c>
-      <c r="J44" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>495</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" t="s">
-        <v>20</v>
+        <v>264</v>
+      </c>
+      <c r="H45" t="s">
+        <v>239</v>
       </c>
       <c r="I45" t="s">
         <v>45</v>
-      </c>
-      <c r="J45" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2631,16 +3543,16 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
@@ -2648,264 +3560,285 @@
       <c r="I46" t="s">
         <v>45</v>
       </c>
-      <c r="J46" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I47" t="s">
         <v>45</v>
-      </c>
-      <c r="J47" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I48" t="s">
         <v>45</v>
-      </c>
-      <c r="J48" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s">
         <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s">
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H51" t="s">
-        <v>231</v>
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
       </c>
       <c r="I51" t="s">
         <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D52" t="s">
-        <v>260</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>266</v>
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" t="s">
+        <v>49</v>
       </c>
       <c r="I52" t="s">
         <v>45</v>
+      </c>
+      <c r="J52" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
-      </c>
-      <c r="H53" t="s">
-        <v>239</v>
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
       </c>
       <c r="I53" t="s">
         <v>45</v>
+      </c>
+      <c r="J53" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D54" t="s">
-        <v>262</v>
-      </c>
-      <c r="H54" t="s">
-        <v>266</v>
+        <v>46</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>28</v>
       </c>
       <c r="I54" t="s">
         <v>45</v>
+      </c>
+      <c r="J54" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
-      </c>
-      <c r="H55" t="s">
-        <v>266</v>
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
       </c>
       <c r="I55" t="s">
         <v>45</v>
+      </c>
+      <c r="J55" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
-      </c>
-      <c r="H56" t="s">
-        <v>239</v>
+        <v>159</v>
+      </c>
+      <c r="E56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
       </c>
       <c r="I56" t="s">
         <v>45</v>
+      </c>
+      <c r="J56" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D57" t="s">
-        <v>265</v>
-      </c>
-      <c r="H57" t="s">
-        <v>239</v>
+        <v>124</v>
+      </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
       </c>
       <c r="I57" t="s">
         <v>45</v>
+      </c>
+      <c r="J57" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2913,28 +3846,25 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="I58" t="s">
         <v>45</v>
       </c>
       <c r="J58" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2942,28 +3872,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="I59" t="s">
         <v>45</v>
       </c>
       <c r="J59" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2971,28 +3898,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="F60" t="s">
         <v>28</v>
       </c>
-      <c r="G60" t="s">
-        <v>256</v>
-      </c>
       <c r="I60" t="s">
         <v>45</v>
       </c>
       <c r="J60" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3003,25 +3927,22 @@
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
         <v>45</v>
       </c>
       <c r="J61" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3032,25 +3953,22 @@
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E62" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
         <v>45</v>
       </c>
       <c r="J62" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3064,13 +3982,13 @@
         <v>243</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
         <v>256</v>
@@ -3079,7 +3997,7 @@
         <v>45</v>
       </c>
       <c r="J63" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3093,10 +4011,10 @@
         <v>243</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F64" t="s">
         <v>27</v>
@@ -3108,7 +4026,7 @@
         <v>45</v>
       </c>
       <c r="J64" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3122,13 +4040,13 @@
         <v>243</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G65" t="s">
         <v>256</v>
@@ -3151,13 +4069,13 @@
         <v>243</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G66" t="s">
         <v>256</v>
@@ -3180,10 +4098,10 @@
         <v>243</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F67" t="s">
         <v>64</v>
@@ -3200,7 +4118,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
@@ -3209,13 +4127,13 @@
         <v>243</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G68" t="s">
         <v>256</v>
@@ -3224,7 +4142,7 @@
         <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3238,13 +4156,13 @@
         <v>243</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G69" t="s">
         <v>256</v>
@@ -3253,7 +4171,7 @@
         <v>45</v>
       </c>
       <c r="J69" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3267,13 +4185,13 @@
         <v>243</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G70" t="s">
         <v>256</v>
@@ -3296,10 +4214,10 @@
         <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F71" t="s">
         <v>64</v>
@@ -3325,13 +4243,13 @@
         <v>243</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G72" t="s">
         <v>256</v>
@@ -3340,7 +4258,7 @@
         <v>45</v>
       </c>
       <c r="J72" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3354,13 +4272,13 @@
         <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F73" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G73" t="s">
         <v>256</v>
@@ -3383,13 +4301,13 @@
         <v>243</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G74" t="s">
         <v>256</v>
@@ -3412,10 +4330,10 @@
         <v>243</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E75" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s">
         <v>64</v>
@@ -3432,7 +4350,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
@@ -3441,10 +4359,10 @@
         <v>243</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="F76" t="s">
         <v>27</v>
@@ -3456,7 +4374,7 @@
         <v>45</v>
       </c>
       <c r="J76" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3470,13 +4388,13 @@
         <v>243</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G77" t="s">
         <v>256</v>
@@ -3499,13 +4417,13 @@
         <v>243</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G78" t="s">
         <v>256</v>
@@ -3528,13 +4446,13 @@
         <v>243</v>
       </c>
       <c r="D79" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G79" t="s">
         <v>256</v>
@@ -3543,7 +4461,7 @@
         <v>45</v>
       </c>
       <c r="J79" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3557,13 +4475,13 @@
         <v>243</v>
       </c>
       <c r="D80" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F80" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G80" t="s">
         <v>256</v>
@@ -3586,13 +4504,13 @@
         <v>243</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E81" t="s">
         <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G81" t="s">
         <v>256</v>
@@ -3615,13 +4533,13 @@
         <v>243</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E82" t="s">
         <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G82" t="s">
         <v>256</v>
@@ -3630,7 +4548,7 @@
         <v>45</v>
       </c>
       <c r="J82" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3644,13 +4562,13 @@
         <v>243</v>
       </c>
       <c r="D83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E83" t="s">
         <v>93</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G83" t="s">
         <v>256</v>
@@ -3673,13 +4591,13 @@
         <v>243</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E84" t="s">
         <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G84" t="s">
         <v>256</v>
@@ -3702,7 +4620,7 @@
         <v>243</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E85" t="s">
         <v>93</v>
@@ -3731,13 +4649,13 @@
         <v>243</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E86" t="s">
         <v>93</v>
       </c>
       <c r="F86" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G86" t="s">
         <v>256</v>
@@ -3746,7 +4664,7 @@
         <v>45</v>
       </c>
       <c r="J86" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3760,13 +4678,13 @@
         <v>243</v>
       </c>
       <c r="D87" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E87" t="s">
         <v>93</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G87" t="s">
         <v>256</v>
@@ -3789,13 +4707,13 @@
         <v>243</v>
       </c>
       <c r="D88" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G88" t="s">
         <v>256</v>
@@ -3818,13 +4736,13 @@
         <v>243</v>
       </c>
       <c r="D89" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G89" t="s">
         <v>256</v>
@@ -3833,7 +4751,7 @@
         <v>45</v>
       </c>
       <c r="J89" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3847,10 +4765,10 @@
         <v>243</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F90" t="s">
         <v>64</v>
@@ -3876,13 +4794,13 @@
         <v>243</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E91" t="s">
         <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G91" t="s">
         <v>256</v>
@@ -3905,13 +4823,13 @@
         <v>243</v>
       </c>
       <c r="D92" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E92" t="s">
         <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G92" t="s">
         <v>256</v>
@@ -3920,12 +4838,12 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -3934,13 +4852,13 @@
         <v>243</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="E93" t="s">
         <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G93" t="s">
         <v>256</v>
@@ -3949,7 +4867,7 @@
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -3963,13 +4881,13 @@
         <v>243</v>
       </c>
       <c r="D94" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G94" t="s">
         <v>256</v>
@@ -3978,7 +4896,7 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -3992,13 +4910,13 @@
         <v>243</v>
       </c>
       <c r="D95" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E95" t="s">
         <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G95" t="s">
         <v>256</v>
@@ -4007,7 +4925,7 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4021,20 +4939,22 @@
         <v>243</v>
       </c>
       <c r="D96" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E96" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96"/>
+        <v>27</v>
+      </c>
+      <c r="G96" t="s">
+        <v>256</v>
+      </c>
       <c r="I96" t="s">
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4048,20 +4968,22 @@
         <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E97" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>27</v>
-      </c>
-      <c r="G97"/>
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>256</v>
+      </c>
       <c r="I97" t="s">
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4081,7 +5003,7 @@
         <v>106</v>
       </c>
       <c r="F98" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G98"/>
       <c r="I98" t="s">
@@ -4096,25 +5018,26 @@
         <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D99" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G99"/>
       <c r="I99" t="s">
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4122,25 +5045,26 @@
         <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="E100" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G100"/>
       <c r="I100" t="s">
         <v>45</v>
       </c>
       <c r="J100" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4148,16 +5072,16 @@
         <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>271</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
         <v>250</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E101" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F101" t="s">
         <v>28</v>
@@ -4166,7 +5090,7 @@
         <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4180,10 +5104,10 @@
         <v>250</v>
       </c>
       <c r="D102" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="E102" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="F102" t="s">
         <v>28</v>
@@ -4192,7 +5116,7 @@
         <v>45</v>
       </c>
       <c r="J102" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4200,16 +5124,16 @@
         <v>58</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="C103" t="s">
         <v>250</v>
       </c>
       <c r="D103" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E103" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F103" t="s">
         <v>28</v>
@@ -4218,7 +5142,7 @@
         <v>45</v>
       </c>
       <c r="J103" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4232,10 +5156,10 @@
         <v>250</v>
       </c>
       <c r="D104" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="E104" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="F104" t="s">
         <v>28</v>
@@ -4244,50 +5168,50 @@
         <v>45</v>
       </c>
       <c r="J104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I105" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" t="s">
+        <v>250</v>
+      </c>
+      <c r="D105" t="s">
+        <v>168</v>
+      </c>
+      <c r="E105" t="s">
+        <v>167</v>
+      </c>
+      <c r="F105" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" t="s">
         <v>45</v>
       </c>
       <c r="J105" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
         <v>32</v>
       </c>
+      <c r="C106" t="s">
+        <v>250</v>
+      </c>
       <c r="D106" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="F106" t="s">
         <v>28</v>
@@ -4296,61 +5220,1394 @@
         <v>45</v>
       </c>
       <c r="J106" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>7</v>
-      </c>
       <c r="B107" t="s">
-        <v>38</v>
-      </c>
-      <c r="D107" t="s">
-        <v>113</v>
-      </c>
-      <c r="E107" t="s">
-        <v>53</v>
-      </c>
-      <c r="F107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="H107" t="s">
-        <v>239</v>
-      </c>
-      <c r="I107" t="s">
-        <v>45</v>
-      </c>
-      <c r="J107" t="s">
-        <v>194</v>
+        <v>272</v>
+      </c>
+      <c r="C107" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C109" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
+        <v>275</v>
+      </c>
+      <c r="C110" t="s">
         <v>276</v>
       </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>279</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J96" xr:uid="{4AA3F991-BDF1-4E00-9F2F-B1729FFC524F}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J107">
-      <sortCondition ref="C1:C96"/>
+      <sortCondition ref="A1:A96"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7051315F-4E37-4E67-8A04-D07672084195}">
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="D44:D50"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" location=":~:text=Fuels%20,averages%20of%20%28mainly%20conventional%29" display="https://support.ecoinvent.org/fuels - :~:text=Fuels%20,averages%20of%20%28mainly%20conventional%29" xr:uid="{E7EEDD45-536D-45DE-A67F-66BBA73FE0B0}"/>
+    <hyperlink ref="C11" r:id="rId2" location=":~:text=The%20ecoinvent%20database%20contains%20supply,averages%20of%20%28mainly%20conventional%29" display="https://support.ecoinvent.org/fuels - :~:text=The%20ecoinvent%20database%20contains%20supply,averages%20of%20%28mainly%20conventional%29" xr:uid="{AA6A1B90-231B-4BCE-8410-EA376A26701F}"/>
+    <hyperlink ref="C14" r:id="rId3" location=":~:text=,represented%20in%20the%20coal" display="https://outside.vermont.gov/agency/anr/climatecouncil/Shared Documents/VT_GHGI_Report_04_04_24_Draft.pdf - :~:text=,represented%20in%20the%20coal" xr:uid="{C87947B7-76E7-4A84-8234-E5446D9ECE43}"/>
+    <hyperlink ref="C16" r:id="rId4" location=":~:text=Fuels%20,averages%20of%20%28mainly%20conventional%29" display="https://support.ecoinvent.org/fuels - :~:text=Fuels%20,averages%20of%20%28mainly%20conventional%29" xr:uid="{65D527CA-CF0A-4D8D-A99D-538F178A57B3}"/>
+    <hyperlink ref="C19" r:id="rId5" location=":~:text=,represented%20in%20the%20coal" display="https://outside.vermont.gov/agency/anr/climatecouncil/Shared Documents/VT_GHGI_Report_04_04_24_Draft.pdf - :~:text=,represented%20in%20the%20coal" xr:uid="{D2064DB3-0D70-4B5D-BA7B-F1E89F79578D}"/>
+    <hyperlink ref="B23" r:id="rId6" location=":~:text=fabricated%20products,made%20publicly%20available%20to%20date" display="https://internationalcopper.org/sustainable-copper/copper-lca/ - :~:text=fabricated%20products,made%20publicly%20available%20to%20date" xr:uid="{E8569F28-245C-469E-A3E9-E31E5CFA10F0}"/>
+    <hyperlink ref="B25" r:id="rId7" location=":~:text=Copper%20and%20Copper%20Alloy%20Semi,PDF" display="https://internationalcopper.org/sustainable-copper/copper-lca/ - :~:text=Copper%20and%20Copper%20Alloy%20Semi,PDF" xr:uid="{E2E5FB41-54F0-41FC-BCD7-6214238670CB}"/>
+    <hyperlink ref="B29" r:id="rId8" location=":~:text=Table%202%20Quantifying%20the%20environmental,%28Frost" display="https://www.imperial-consultants.co.uk/wp-content/uploads/2021/02/Final-report-Environmental-Impacts-of-Mined-Diamonds.pdf - :~:text=Table%202%20Quantifying%20the%20environmental,%28Frost" xr:uid="{3C7BC743-7279-45F1-9039-314F7868D4A8}"/>
+    <hyperlink ref="C32" r:id="rId9" location=":~:text=The%20primary%20production%20of%20the,PGM%2C%20the%20re%02cycling%20process%20of" display="https://www.dora.lib4ri.ch/empa/islandora/object/empa%3A4568/datastream/PDF/download/Althaus-2005-Life_cycle_inventories_of_metals-%28published_version%29.pdf - :~:text=The%20primary%20production%20of%20the,PGM%2C%20the%20re%02cycling%20process%20of" xr:uid="{0E0B23B9-DAAF-4727-B50B-C16DD596FEFB}"/>
+    <hyperlink ref="B40" r:id="rId10" location=":~:text=...%20www.faraday.ac.uk%20%20Cradle,extraction%20to%20niobium%20oxide%20production" display="https://www.faraday.ac.uk/wp-content/uploads/2023/10/ElianTagoFUSE23Niobium_v2-1.pdf - :~:text=...%20www.faraday.ac.uk%20%20Cradle,extraction%20to%20niobium%20oxide%20production" xr:uid="{8A0E6C8C-ABA9-4954-BA8B-17BFAFBD7F96}"/>
+    <hyperlink ref="C42" r:id="rId11" location=":~:text=The%20primary%20production%20of%20the,PGM%2C%20the%20re%02cycling%20process%20of" display="https://www.dora.lib4ri.ch/empa/islandora/object/empa%3A4568/datastream/PDF/download/Althaus-2005-Life_cycle_inventories_of_metals-%28published_version%29.pdf - :~:text=The%20primary%20production%20of%20the,PGM%2C%20the%20re%02cycling%20process%20of" xr:uid="{2E0FD8CE-C807-4753-BB97-B60B773772B9}"/>
+    <hyperlink ref="B45" r:id="rId12" location=":~:text=Purpose%20To%20support%20the%20data,2011%20was%20chosen%20as%20reference" display="https://www.researchgate.net/publication/299529264_Life_cycle_assessment_of_nickel_products - :~:text=Purpose%20To%20support%20the%20data,2011%20was%20chosen%20as%20reference" xr:uid="{0F3199DB-4B57-450B-9B33-2B0F5A06DF4F}"/>
+    <hyperlink ref="B47" r:id="rId13" location=":~:text=to%20further%20understand%20the%20relevance,six%20percent%20of%20the" display="https://www.researchgate.net/publication/299529264_Life_cycle_assessment_of_nickel_products - :~:text=to%20further%20understand%20the%20relevance,six%20percent%20of%20the" xr:uid="{3C6B892B-559C-4ABE-A4FA-A2BD44C7138B}"/>
+    <hyperlink ref="C45" r:id="rId14" location=":~:text=by,impact%20of%20the%20different%20allocation" display="https://www.researchgate.net/publication/299529264_Life_cycle_assessment_of_nickel_products - :~:text=by,impact%20of%20the%20different%20allocation" xr:uid="{EA67EFB2-1095-47E9-AC8A-64B18519C52B}"/>
+    <hyperlink ref="C47" r:id="rId15" location=":~:text=the%20main%20contributors%20to%20primary,in%20this%20study%2C%20is%20from" display="https://www.researchgate.net/publication/299529264_Life_cycle_assessment_of_nickel_products - :~:text=the%20main%20contributors%20to%20primary,in%20this%20study%2C%20is%20from" xr:uid="{D8564978-41C2-4FCD-A3A3-48E2C175C3D8}"/>
+    <hyperlink ref="C49" r:id="rId16" location=":~:text=to%20be%20147%20MJ%2C%20whilst,Conclusions%20Conformant%20to%20relevant%20ISO" display="https://www.researchgate.net/publication/299529264_Life_cycle_assessment_of_nickel_products - :~:text=to%20be%20147%20MJ%2C%20whilst,Conclusions%20Conformant%20to%20relevant%20ISO" xr:uid="{7C069092-85E5-4872-8CDA-0354E0FCA0AC}"/>
+    <hyperlink ref="C53" r:id="rId17" location=":~:text=The%20primary%20production%20of%20the,PGM%2C%20the%20re%02cycling%20process%20of" display="https://www.dora.lib4ri.ch/empa/islandora/object/empa%3A4568/datastream/PDF/download/Althaus-2005-Life_cycle_inventories_of_metals-%28published_version%29.pdf - :~:text=The%20primary%20production%20of%20the,PGM%2C%20the%20re%02cycling%20process%20of" xr:uid="{7B27F0E0-374F-4E27-84DA-4362D193B02D}"/>
+    <hyperlink ref="C58" r:id="rId18" location=":~:text=The%20primary%20production%20of%20the,PGM%2C%20the%20re%02cycling%20process%20of" display="https://www.dora.lib4ri.ch/empa/islandora/object/empa%3A4568/datastream/PDF/download/Althaus-2005-Life_cycle_inventories_of_metals-%28published_version%29.pdf - :~:text=The%20primary%20production%20of%20the,PGM%2C%20the%20re%02cycling%20process%20of" xr:uid="{D3856354-653A-44E9-9131-DD76E2C56DEB}"/>
+    <hyperlink ref="C61" r:id="rId19" location=":~:text=The%20PGM%20industry%20has%20finalized,2025%2C%20and%20data%20can%20be" display="https://ipa-news.de/index.php?id=50 - :~:text=The%20PGM%20industry%20has%20finalized,2025%2C%20and%20data%20can%20be" xr:uid="{5A5BA281-B613-4A44-8590-341E74354109}"/>
+    <hyperlink ref="B66" r:id="rId20" location=":~:text=,Resources%2C%20Conservation" display="https://pmc.ncbi.nlm.nih.gov/articles/PMC11542807/ - :~:text=,Resources%2C%20Conservation" xr:uid="{AD6061F5-B582-4B32-B6B9-195CF94542CF}"/>
+    <hyperlink ref="C66" r:id="rId21" location=":~:text=CoLab%20colab,site%20emissions" display="https://colab.ws/articles/10.1016%2Fj.resconrec.2018.07.028 - :~:text=CoLab%20colab,site%20emissions" xr:uid="{B1505EDB-E9DC-4DB8-88B5-35D43BC86922}"/>
+    <hyperlink ref="C68" r:id="rId22" location=":~:text=,Resources%2C%20Conservation" display="https://pmc.ncbi.nlm.nih.gov/articles/PMC11542807/ - :~:text=,Resources%2C%20Conservation" xr:uid="{BF2456DF-EB5E-4E31-B065-7EC71DCA81D6}"/>
+    <hyperlink ref="C76" r:id="rId23" location=":~:text=,conducted%20based%20on%20ReCiPe%20method" display="https://www.researchgate.net/publication/320653955_Environmental_impacts_analysis_of_titanium_sponge_production_using_Kroll_process_in_China - :~:text=,conducted%20based%20on%20ReCiPe%20method" xr:uid="{5DA092D9-7109-41B0-849D-D9AA6C1CF7F3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04632E5-C5E4-4B7F-B773-D99F978D0735}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>